--- a/mbs-perturbation/bloated/randomForest/smote/bloated-randomForest-smote-results.xlsx
+++ b/mbs-perturbation/bloated/randomForest/smote/bloated-randomForest-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6203966005665722</v>
+        <v>0.638095238095238</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9909502262443439</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7630662020905923</v>
+        <v>0.7790697674418604</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7965541246084233</v>
+        <v>0.8721813816489692</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9152542372881356</v>
+        <v>0.9262672811059908</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9818181818181818</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9473684210526316</v>
+        <v>0.9617224880382775</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9878547922665569</v>
+        <v>0.9898022326180046</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9347826086956522</v>
+        <v>0.9901477832512315</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9772727272727273</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9555555555555557</v>
+        <v>0.995049504950495</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9930481283422461</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9638009049773756</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9815668202764977</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9913410119292472</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9950248756218906</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9819004524886877</v>
+        <v>0.9950248756218906</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9908675799086757</v>
+        <v>0.9950248756218906</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9948066639243111</v>
+        <v>0.9998258706467662</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8940866893100721</v>
+        <v>0.9099070356148701</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9791484985602633</v>
+        <v>0.9990049751243781</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9276849157767906</v>
+        <v>0.9461733272105046</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9527209442141569</v>
+        <v>0.9723618969827481</v>
       </c>
     </row>
   </sheetData>
